--- a/results_exact/7_transbordo_porto.xlsx
+++ b/results_exact/7_transbordo_porto.xlsx
@@ -444,39 +444,39 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
+          <t>IPAMERI,GO, Brazil</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>178404.652</v>
       </c>
       <c r="D2" t="n">
-        <v>170376.128</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -485,20 +485,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IPAMERI,GO, Brazil</t>
+          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63178.6376787714</v>
+        <v>319659.5975469587</v>
       </c>
       <c r="C3" t="n">
-        <v>115226.0143212286</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>899779.9840000001</v>
       </c>
     </row>
     <row r="4">
@@ -514,45 +514,45 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>729132.056</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RIO VERDE, GO, Brazil</t>
+          <t>ANÁPOLIS, GO, Brazil</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2100924.612000001</v>
+        <v>294755.512</v>
       </c>
       <c r="D5" t="n">
-        <v>264876.2079999992</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>465403.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SÃO SIMÃO, GO, Brazil</t>
+          <t>RIO VERDE, GO, Brazil</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>145740.5064530415</v>
       </c>
       <c r="C6" t="n">
-        <v>736888.7800000001</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2685463.753546958</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>169768.8</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -580,7 +580,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANÁPOLIS, GO, Brazil</t>
+          <t>SÃO SIMÃO, GO, Brazil</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>294755.512</v>
+        <v>736888.7800000001</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>19892118.698</v>
       </c>
       <c r="C2" t="n">
-        <v>29067871.19808</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -653,16 +653,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10778907.37437519</v>
+        <v>35485411.92368789</v>
       </c>
       <c r="B3" t="n">
-        <v>13473377.85458126</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>98687868.64512001</v>
       </c>
     </row>
     <row r="4">
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>124397220.07416</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>86030291.28743999</v>
       </c>
     </row>
     <row r="5">
@@ -684,24 +684,24 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>245661114.8811601</v>
+        <v>36322721.74376</v>
       </c>
       <c r="C5" t="n">
-        <v>45190529.84687986</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>79402480.89840001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>20524635.52378183</v>
       </c>
       <c r="B6" t="n">
-        <v>68059047.72080001</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>251950209.3577756</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>19851065.784</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>50288237.90232001</v>
+        <v>60159599.99920001</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -757,22 +757,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4946632922.190081</v>
       </c>
       <c r="C2" t="n">
-        <v>4621248020.646399</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1751756614.064802</v>
+        <v>8810569708.448418</v>
       </c>
       <c r="B3" t="n">
-        <v>2149840884.799755</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>24405452330.0192</v>
       </c>
     </row>
     <row r="4">
@@ -812,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>21777278769.3744</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -823,24 +823,24 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>45980310827.07902</v>
+        <v>9313616874.408241</v>
       </c>
       <c r="C5" t="n">
-        <v>11159865048.415</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>17410105087.6872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>5451952681.91444</v>
       </c>
       <c r="B6" t="n">
-        <v>13158070277.875</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>58773388344.19035</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>3817242979.56</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>11180695556.7352</v>
+        <v>13158070277.875</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1299733769.00629</v>
+        <v>1173716706.325242</v>
       </c>
       <c r="B2" t="n">
-        <v>175406372651106.8</v>
+        <v>158109252026288.1</v>
       </c>
     </row>
   </sheetData>
